--- a/Using_English_at_Work/UEAW-For Test.xlsx
+++ b/Using_English_at_Work/UEAW-For Test.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="587">
   <si>
     <r>
       <rPr>
@@ -1311,10 +1311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The driver didn’t see that the security arm was down, so she drove into it and broke it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Whenever Gisela parks in a parking structure, she always forgets which floor her car is on.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2244,6 +2240,107 @@
 Eight of us walk down the street to Steve’s Cantina. We find a table in the back of the bar and look at the drinks menu. Happy hour is from 4 to 7 p.m., and the drinks are half price. We order our drinks and I go to get some snacks and appetizers. I look at the food that’s available and I see a lot of deep-fried foods and chips and dip, so I load up and go back to the table.
 One of the guys, Brian, starts to grumble about work and to bad-mouth the boss. I’m in no mood to talk about work, so I change the subject. I ask everybody what his or her plans are for the weekend. Diana says that she’s planning to kick back and relax. Rodrigo said he has a hot date. Van tells us a funny story about the last date he went on that didn’t go very well. We have a good laugh over it.
 We all have a great time at happy hour and it’s a good way to kick off the weekend!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这周过得很艰难，但是这个周末将会很有趣。谢天谢地今天是周五。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>办公室边上的停车场满了，所以我不得不停在了两条街外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国总统住在白宫，哪里所有入口都有安全门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在世界银行，无论何时人们都必须携带他们的门卡，所以他们将其用绳子系在脖子上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The driver didn’t see that the security arm was down, so she drove into it and broke it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你把你的卡在读卡器上刷得太快，它可能不会被正确读出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个司机没有看到安全杆已经降下，她开了进去并把它弄坏了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gisela每次停在停车场的时候，她总是忘记她把车停在哪层。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司总裁在大楼入口处有一个私人停车位，但剩下的我们都得开车去寻找一个位置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在很多大学，学生们得支付超过50美元一个月来获取一张停车证。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当Kayla昨天开车跟在一辆大卡车后面时，一块小石子击中了Kayla的挡风板，不过幸运的是玻璃没有碎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你记得在今早上班之前锁门了吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你努力工作，你很快就能完成你的作业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你在博物馆有问题的话，你应该找一个带胸牌的员工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>皇家地理的正门在M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Street上，但是你可以从16th Street或者17th Street进去。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你在另一个国家的大城市里，我建议你对身边发生的事情随时保持警惕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个保安丢掉了他的工作，因为在他本应该监视入口的时候他睡着了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你离开大楼时，请将你的来访证交给保安。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当Jeremiah给出了一个错误答案后，他的班级同学都捉弄他，另外的学生取笑他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要有一个有至少23张座位的大会议室来准备周一的会议。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当会议结束的时候，会议桌被空水瓶，咖啡杯，资料和笔覆盖了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你干得好的话，公司可能会几年内就要求你当部门经理。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2366,7 +2463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2425,6 +2522,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2734,10 +2834,10 @@
   <dimension ref="A1:C192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="B35:C35"/>
+      <selection pane="bottomRight" activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -2749,7 +2849,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B1" s="14" t="s">
         <v>324</v>
@@ -2760,14 +2860,17 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>344</v>
+        <v>343</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>565</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>326</v>
@@ -2775,7 +2878,10 @@
     </row>
     <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>345</v>
+        <v>344</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>566</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>327</v>
@@ -2783,7 +2889,10 @@
     </row>
     <row r="5" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>346</v>
+        <v>345</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>567</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>330</v>
@@ -2791,7 +2900,10 @@
     </row>
     <row r="6" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>347</v>
+        <v>346</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>568</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>331</v>
@@ -2799,7 +2911,10 @@
     </row>
     <row r="7" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>570</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>332</v>
@@ -2807,55 +2922,76 @@
     </row>
     <row r="8" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>333</v>
+        <v>348</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>571</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>569</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>350</v>
+        <v>349</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>572</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>573</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>574</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>575</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>354</v>
+        <v>353</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>576</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>355</v>
+        <v>354</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>577</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>328</v>
@@ -2863,39 +2999,54 @@
     </row>
     <row r="15" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>356</v>
+        <v>355</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>578</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>357</v>
+        <v>356</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>579</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>358</v>
+        <v>357</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>580</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>581</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>360</v>
+        <v>359</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>582</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>329</v>
@@ -2903,320 +3054,332 @@
     </row>
     <row r="20" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>583</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
     </row>
     <row r="22" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B28" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>27</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>29</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B33" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B37" s="16" t="s">
         <v>34</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B39" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B40" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
     </row>
     <row r="42" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>415</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>584</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>417</v>
+        <v>416</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>585</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="C44" s="16" t="s">
         <v>418</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B47" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="28" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B49" s="16" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="56" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3227,7 +3390,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3238,7 +3401,7 @@
         <v>48</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -3249,7 +3412,7 @@
         <v>50</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3260,7 +3423,7 @@
         <v>52</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3271,7 +3434,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3282,7 +3445,7 @@
         <v>56</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3293,7 +3456,7 @@
         <v>58</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3304,12 +3467,12 @@
         <v>60</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B59" s="18"/>
       <c r="C59" s="18"/>
@@ -3322,7 +3485,7 @@
         <v>62</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3333,7 +3496,7 @@
         <v>64</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -3344,7 +3507,7 @@
         <v>66</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3355,7 +3518,7 @@
         <v>68</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3366,7 +3529,7 @@
         <v>70</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3377,7 +3540,7 @@
         <v>72</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3388,7 +3551,7 @@
         <v>74</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3399,7 +3562,7 @@
         <v>76</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3410,7 +3573,7 @@
         <v>78</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3421,7 +3584,7 @@
         <v>80</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3432,7 +3595,7 @@
         <v>82</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3443,7 +3606,7 @@
         <v>84</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3454,7 +3617,7 @@
         <v>86</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3465,7 +3628,7 @@
         <v>88</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3476,7 +3639,7 @@
         <v>90</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3487,7 +3650,7 @@
         <v>92</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3498,7 +3661,7 @@
         <v>94</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3509,12 +3672,12 @@
         <v>96</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B78" s="18"/>
       <c r="C78" s="18"/>
@@ -3527,7 +3690,7 @@
         <v>98</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3538,7 +3701,7 @@
         <v>100</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3549,7 +3712,7 @@
         <v>102</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3560,7 +3723,7 @@
         <v>104</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3571,7 +3734,7 @@
         <v>106</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3582,7 +3745,7 @@
         <v>108</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3593,7 +3756,7 @@
         <v>110</v>
       </c>
       <c r="C85" s="16" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3604,7 +3767,7 @@
         <v>112</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3615,7 +3778,7 @@
         <v>114</v>
       </c>
       <c r="C87" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3626,7 +3789,7 @@
         <v>116</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3637,7 +3800,7 @@
         <v>118</v>
       </c>
       <c r="C89" s="16" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3648,7 +3811,7 @@
         <v>120</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3659,7 +3822,7 @@
         <v>122</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3670,7 +3833,7 @@
         <v>124</v>
       </c>
       <c r="C92" s="16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3681,7 +3844,7 @@
         <v>126</v>
       </c>
       <c r="C93" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3692,7 +3855,7 @@
         <v>128</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3703,7 +3866,7 @@
         <v>130</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3714,7 +3877,7 @@
         <v>132</v>
       </c>
       <c r="C96" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3725,12 +3888,12 @@
         <v>134</v>
       </c>
       <c r="C97" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B98" s="18"/>
       <c r="C98" s="18"/>
@@ -3743,7 +3906,7 @@
         <v>136</v>
       </c>
       <c r="C99" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3754,7 +3917,7 @@
         <v>138</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3765,7 +3928,7 @@
         <v>140</v>
       </c>
       <c r="C101" s="16" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3776,7 +3939,7 @@
         <v>142</v>
       </c>
       <c r="C102" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3787,7 +3950,7 @@
         <v>144</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3798,7 +3961,7 @@
         <v>146</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3809,7 +3972,7 @@
         <v>148</v>
       </c>
       <c r="C105" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3820,7 +3983,7 @@
         <v>150</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -3831,7 +3994,7 @@
         <v>152</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -3842,7 +4005,7 @@
         <v>154</v>
       </c>
       <c r="C108" s="16" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3853,7 +4016,7 @@
         <v>156</v>
       </c>
       <c r="C109" s="16" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3864,7 +4027,7 @@
         <v>158</v>
       </c>
       <c r="C110" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3875,7 +4038,7 @@
         <v>160</v>
       </c>
       <c r="C111" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3886,7 +4049,7 @@
         <v>162</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3897,7 +4060,7 @@
         <v>164</v>
       </c>
       <c r="C113" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3908,7 +4071,7 @@
         <v>166</v>
       </c>
       <c r="C114" s="16" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3919,7 +4082,7 @@
         <v>168</v>
       </c>
       <c r="C115" s="16" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -3930,7 +4093,7 @@
         <v>170</v>
       </c>
       <c r="C116" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3941,12 +4104,12 @@
         <v>172</v>
       </c>
       <c r="C117" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
@@ -3959,7 +4122,7 @@
         <v>174</v>
       </c>
       <c r="C119" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3970,7 +4133,7 @@
         <v>176</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3981,7 +4144,7 @@
         <v>178</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -3992,7 +4155,7 @@
         <v>180</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4003,7 +4166,7 @@
         <v>182</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4014,7 +4177,7 @@
         <v>184</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4025,7 +4188,7 @@
         <v>186</v>
       </c>
       <c r="C125" s="16" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4036,7 +4199,7 @@
         <v>188</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4047,7 +4210,7 @@
         <v>190</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4058,7 +4221,7 @@
         <v>192</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4069,7 +4232,7 @@
         <v>194</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4080,7 +4243,7 @@
         <v>196</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4091,7 +4254,7 @@
         <v>198</v>
       </c>
       <c r="C131" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4102,7 +4265,7 @@
         <v>200</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4113,7 +4276,7 @@
         <v>202</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4124,7 +4287,7 @@
         <v>204</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4135,12 +4298,12 @@
         <v>206</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" s="17" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
@@ -4153,7 +4316,7 @@
         <v>208</v>
       </c>
       <c r="C137" s="16" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4164,7 +4327,7 @@
         <v>210</v>
       </c>
       <c r="C138" s="16" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4175,7 +4338,7 @@
         <v>283</v>
       </c>
       <c r="C139" s="16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4186,7 +4349,7 @@
         <v>285</v>
       </c>
       <c r="C140" s="16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4197,7 +4360,7 @@
         <v>287</v>
       </c>
       <c r="C141" s="16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4208,7 +4371,7 @@
         <v>289</v>
       </c>
       <c r="C142" s="16" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4219,7 +4382,7 @@
         <v>291</v>
       </c>
       <c r="C143" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4230,7 +4393,7 @@
         <v>293</v>
       </c>
       <c r="C144" s="16" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4241,7 +4404,7 @@
         <v>295</v>
       </c>
       <c r="C145" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4252,7 +4415,7 @@
         <v>297</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4263,7 +4426,7 @@
         <v>299</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4274,7 +4437,7 @@
         <v>301</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4285,7 +4448,7 @@
         <v>303</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4296,7 +4459,7 @@
         <v>305</v>
       </c>
       <c r="C150" s="16" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4307,7 +4470,7 @@
         <v>307</v>
       </c>
       <c r="C151" s="16" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4318,7 +4481,7 @@
         <v>309</v>
       </c>
       <c r="C152" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4329,7 +4492,7 @@
         <v>311</v>
       </c>
       <c r="C153" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4340,23 +4503,23 @@
         <v>313</v>
       </c>
       <c r="C154" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="42" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B155" s="16" t="s">
         <v>314</v>
       </c>
       <c r="C155" s="16" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B156" s="18"/>
       <c r="C156" s="18"/>
@@ -4369,7 +4532,7 @@
         <v>212</v>
       </c>
       <c r="C157" s="16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4380,7 +4543,7 @@
         <v>214</v>
       </c>
       <c r="C158" s="16" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4391,7 +4554,7 @@
         <v>216</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4402,7 +4565,7 @@
         <v>218</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4413,7 +4576,7 @@
         <v>220</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4424,7 +4587,7 @@
         <v>222</v>
       </c>
       <c r="C162" s="16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4435,7 +4598,7 @@
         <v>224</v>
       </c>
       <c r="C163" s="16" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4446,7 +4609,7 @@
         <v>226</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="165" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4457,7 +4620,7 @@
         <v>228</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4468,7 +4631,7 @@
         <v>230</v>
       </c>
       <c r="C166" s="16" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="167" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4479,7 +4642,7 @@
         <v>232</v>
       </c>
       <c r="C167" s="16" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="168" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4490,7 +4653,7 @@
         <v>234</v>
       </c>
       <c r="C168" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="169" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4501,7 +4664,7 @@
         <v>236</v>
       </c>
       <c r="C169" s="16" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="170" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4512,7 +4675,7 @@
         <v>238</v>
       </c>
       <c r="C170" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="171" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4523,7 +4686,7 @@
         <v>240</v>
       </c>
       <c r="C171" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4534,7 +4697,7 @@
         <v>242</v>
       </c>
       <c r="C172" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4545,12 +4708,12 @@
         <v>244</v>
       </c>
       <c r="C173" s="16" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" s="17" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B174" s="18"/>
       <c r="C174" s="18"/>
@@ -4563,7 +4726,7 @@
         <v>246</v>
       </c>
       <c r="C175" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4574,7 +4737,7 @@
         <v>248</v>
       </c>
       <c r="C176" s="16" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="56" x14ac:dyDescent="0.25">
@@ -4585,7 +4748,7 @@
         <v>250</v>
       </c>
       <c r="C177" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4596,7 +4759,7 @@
         <v>252</v>
       </c>
       <c r="C178" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4607,7 +4770,7 @@
         <v>254</v>
       </c>
       <c r="C179" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4618,7 +4781,7 @@
         <v>256</v>
       </c>
       <c r="C180" s="16" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4629,7 +4792,7 @@
         <v>258</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4640,7 +4803,7 @@
         <v>260</v>
       </c>
       <c r="C182" s="16" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4651,7 +4814,7 @@
         <v>262</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4662,7 +4825,7 @@
         <v>264</v>
       </c>
       <c r="C184" s="16" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4673,7 +4836,7 @@
         <v>266</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4684,7 +4847,7 @@
         <v>268</v>
       </c>
       <c r="C186" s="16" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="42" x14ac:dyDescent="0.25">
@@ -4695,7 +4858,7 @@
         <v>270</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4706,7 +4869,7 @@
         <v>272</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4717,7 +4880,7 @@
         <v>274</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4728,7 +4891,7 @@
         <v>276</v>
       </c>
       <c r="C190" s="16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4739,7 +4902,7 @@
         <v>278</v>
       </c>
       <c r="C191" s="16" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="28" x14ac:dyDescent="0.25">
@@ -4750,7 +4913,7 @@
         <v>280</v>
       </c>
       <c r="C192" s="16" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -4766,9 +4929,9 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -4964,7 +5127,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
